--- a/EXCEL/№1280 от 17.11.2022 АО 5 ДОРОГ от ООО ТД АНМАКС.xlsx
+++ b/EXCEL/№1280 от 17.11.2022 АО 5 ДОРОГ от ООО ТД АНМАКС.xlsx
@@ -145,13 +145,13 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>1 059 229,66</t>
+    <t>3 177 688,98</t>
   </si>
   <si>
     <t>В т.ч. НДС (20%):</t>
   </si>
   <si>
-    <t>211 845,93</t>
+    <t>635 537,80</t>
   </si>
   <si>
     <t>Цены указаны в рублях с учетом НДС.</t>
@@ -576,7 +576,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3562350" cy="3086100"/>
@@ -895,10 +895,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1279,87 +1279,387 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="J25" s="37" t="s">
+    <row r="25" spans="1:19" customHeight="1" ht="30">
+      <c r="C25" s="32">
+        <v>7</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="32">
+        <v>75</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" customHeight="1" ht="15">
+      <c r="C26" s="32">
+        <v>8</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="32">
+        <v>4</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" customHeight="1" ht="15">
+      <c r="C27" s="32">
+        <v>9</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="32">
+        <v>53</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" customHeight="1" ht="75">
+      <c r="C28" s="32">
+        <v>10</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="32">
+        <v>34</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" customHeight="1" ht="15">
+      <c r="C29" s="32">
+        <v>11</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="32">
+        <v>3</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" customHeight="1" ht="15">
+      <c r="C30" s="32">
+        <v>12</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="32">
+        <v>10000</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" customHeight="1" ht="30">
+      <c r="C31" s="32">
+        <v>13</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="32">
+        <v>75</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" customHeight="1" ht="15">
+      <c r="C32" s="32">
+        <v>14</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="32">
+        <v>4</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" customHeight="1" ht="15">
+      <c r="C33" s="32">
+        <v>15</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="32">
+        <v>53</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" customHeight="1" ht="75">
+      <c r="C34" s="32">
+        <v>16</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="32">
+        <v>34</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" customHeight="1" ht="15">
+      <c r="C35" s="32">
+        <v>17</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="32">
+        <v>3</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" customHeight="1" ht="15">
+      <c r="C36" s="32">
+        <v>18</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="32">
+        <v>10000</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="J37" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="37" t="s">
+      <c r="M37" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="J26" s="37" t="s">
+    <row r="38" spans="1:19">
+      <c r="J38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="M38" s="37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="C27" s="38" t="s">
+    <row r="39" spans="1:19">
+      <c r="C39" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" customHeight="1" ht="21">
-      <c r="D31" s="39" t="s">
+    <row r="42" spans="1:19">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" customHeight="1" ht="21">
+      <c r="D43" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F43" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:19" customHeight="1" ht="21">
-      <c r="D32" s="39" t="s">
+    <row r="44" spans="1:19" customHeight="1" ht="21">
+      <c r="D44" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F44" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:19" customHeight="1" ht="21">
-      <c r="D33" s="39" t="s">
+    <row r="45" spans="1:19" customHeight="1" ht="21">
+      <c r="D45" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F45" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="M45" s="37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
-      <c r="C39" s="40" t="s">
+    <row r="51" spans="1:19">
+      <c r="C51" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="L39" s="40" t="s">
+      <c r="L51" s="40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
-      <c r="C43" s="41" t="s">
+    <row r="55" spans="1:19">
+      <c r="C55" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
-      <c r="C44" s="41" t="s">
+    <row r="56" spans="1:19">
+      <c r="C56" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
-      <c r="C45" s="41" t="s">
+    <row r="57" spans="1:19">
+      <c r="C57" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="C46" s="41" t="s">
+    <row r="58" spans="1:19">
+      <c r="C58" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="C47" s="42" t="s">
+    <row r="59" spans="1:19">
+      <c r="C59" s="42" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1402,21 +1702,45 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:M43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:M44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:L45"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="L51:M51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId_hyperlink_1"/>
     <hyperlink ref="L2" r:id="rId_hyperlink_2"/>
-    <hyperlink ref="C47" r:id="rId_hyperlink_3"/>
+    <hyperlink ref="C59" r:id="rId_hyperlink_3"/>
   </hyperlinks>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
